--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4E4EAE4-4412-4680-8955-68B2A34C9ECA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Adopcion Safe" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>SGID</t>
   </si>
@@ -239,12 +238,15 @@
   </si>
   <si>
     <t>Logrado</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +322,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -515,6 +523,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,12 +577,423 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-CO" b="1"/>
+              <a:t>Marco</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" b="1" baseline="0"/>
+              <a:t> Safe</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deseado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$B$47:$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ceremonias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Roles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$C$47:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F841-4247-BEA8-E4304AE0E292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$B$47:$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ceremonias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Roles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$D$47:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38412698412698409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F841-4247-BEA8-E4304AE0E292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1401665984"/>
+        <c:axId val="1401665568"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1401665984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1401665568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1401665568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1401665984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="es-CO"/>
               <a:t>Madurez Equipo</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -694,43 +1115,43 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.51724137931034486</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2413793103448276</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31034482758620691</c:v>
+                  <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.4642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20689655172413793</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27586206896551724</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48275862068965519</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31034482758620691</c:v>
+                  <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1153,6 +1574,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1184,6 +1606,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1191,7 +1614,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1226,7 +1648,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1274,6 +1696,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1365,7 +1788,7 @@
                   <c:v>0.29444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31724137931034485</c:v>
+                  <c:v>0.32619047619047614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,6 +2061,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1669,6 +2093,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1676,7 +2101,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1752,6 +2176,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -2798,7 +3262,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190506</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238131</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3219,17 +4223,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G41" sqref="G41"/>
+      <selection pane="topRight" activeCell="D47" sqref="D47:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -4287,9 +5291,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4327,9 +5329,9 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="15"/>
@@ -4351,7 +5353,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>SUM(A31:A37)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="21"/>
@@ -4378,63 +5380,63 @@
         <v>16</v>
       </c>
       <c r="C39" s="24">
-        <f>SUM(C5:C14)/10</f>
+        <f>SUM(C5:C14)/$A$15</f>
         <v>0.4</v>
       </c>
       <c r="D39" s="24">
-        <f t="shared" ref="D39:Q39" si="0">SUM(D5:D14)/10</f>
+        <f>SUM(D5:D14)/$A$15</f>
         <v>0.4</v>
       </c>
       <c r="E39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:E14)/$A$15</f>
         <v>0.2</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:F14)/$A$15</f>
         <v>0.4</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(G5:G14)/$A$15</f>
         <v>0.1</v>
       </c>
       <c r="H39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(H5:H14)/$A$15</f>
         <v>0.3</v>
       </c>
       <c r="I39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(I5:I14)/$A$15</f>
         <v>0.2</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:J14)/$A$15</f>
         <v>0.3</v>
       </c>
       <c r="K39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(K5:K14)/$A$15</f>
         <v>0.1</v>
       </c>
       <c r="L39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(L5:L14)/$A$15</f>
         <v>0.1</v>
       </c>
       <c r="M39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(M5:M14)/$A$15</f>
         <v>0.2</v>
       </c>
       <c r="N39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(N5:N14)/$A$15</f>
         <v>0.6</v>
       </c>
       <c r="O39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(O5:O14)/$A$15</f>
         <v>0.4</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(P5:P14)/$A$15</f>
         <v>0</v>
       </c>
       <c r="Q39" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(Q5:Q14)/$A$15</f>
         <v>0</v>
       </c>
       <c r="R39" s="16">
@@ -4447,67 +5449,67 @@
         <v>32</v>
       </c>
       <c r="C40" s="26">
-        <f>SUM(C17:C28)/12</f>
+        <f>SUM(C17:C28)/$A$29</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="D40" s="26">
-        <f t="shared" ref="D40:Q40" si="1">SUM(D17:D28)/12</f>
+        <f>SUM(D17:D28)/$A$29</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(E17:E28)/$A$29</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(F17:F28)/$A$29</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(G17:G28)/$A$29</f>
         <v>0</v>
       </c>
       <c r="H40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(H17:H28)/$A$29</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(I17:I28)/$A$29</f>
         <v>0.25</v>
       </c>
       <c r="J40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(J17:J28)/$A$29</f>
         <v>0.5</v>
       </c>
       <c r="K40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(K17:K28)/$A$29</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(L17:L28)/$A$29</f>
         <v>0.25</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:M28)/$A$29</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(N17:N28)/$A$29</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(O17:O28)/$A$29</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(P17:P28)/$A$29</f>
         <v>0</v>
       </c>
       <c r="Q40" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(Q17:Q28)/$A$29</f>
         <v>0</v>
       </c>
       <c r="R40" s="16">
-        <f t="shared" ref="R40:R42" si="2">AVERAGE(C40:Q40)</f>
+        <f t="shared" ref="R40:R42" si="0">AVERAGE(C40:Q40)</f>
         <v>0.29444444444444445</v>
       </c>
     </row>
@@ -4516,68 +5518,68 @@
         <v>55</v>
       </c>
       <c r="C41" s="26">
-        <f>SUM(C31:C37)/7</f>
-        <v>0.5714285714285714</v>
+        <f>SUM(C31:C37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D41" s="26">
-        <f t="shared" ref="D41:Q41" si="3">SUM(D31:D37)/7</f>
-        <v>0.5714285714285714</v>
+        <f>SUM(D31:D37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(E31:E37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
+        <f>SUM(F31:F37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(G31:G37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.42857142857142855</v>
+        <f>SUM(H31:H37)/$A$38</f>
+        <v>0.5</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(I31:I37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(J31:J37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(K31:K37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(L31:L37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(M31:M37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N41" s="26">
-        <f t="shared" si="3"/>
+        <f>SUM(N31:N37)/$A$38</f>
         <v>0</v>
       </c>
       <c r="O41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(O31:O37)/$A$38</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="3"/>
+        <f>SUM(P31:P37)/$A$38</f>
         <v>0</v>
       </c>
       <c r="Q41" s="26">
-        <f t="shared" si="3"/>
+        <f>SUM(Q31:Q37)/$A$38</f>
         <v>0</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="2"/>
-        <v>0.45714285714285707</v>
+        <f t="shared" si="0"/>
+        <v>0.52222222222222237</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -4585,85 +5587,130 @@
         <v>67</v>
       </c>
       <c r="C42" s="25">
-        <f>SUM(C4:C37)/29</f>
-        <v>0.51724137931034486</v>
+        <f>SUM(C4:C37)/($A$38+$A$29+$A$15)</f>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" ref="D42:Q42" si="4">SUM(D4:D37)/29</f>
-        <v>0.55172413793103448</v>
+        <f t="shared" ref="D42:Q42" si="1">SUM(D4:D37)/($A$38+$A$29+$A$15)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.34482758620689657</v>
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.55172413793103448</v>
+        <f t="shared" si="1"/>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.17241379310344829</v>
+        <f t="shared" si="1"/>
+        <v>0.17857142857142858</v>
       </c>
       <c r="H42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.2413793103448276</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="I42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.31034482758620691</v>
+        <f t="shared" si="1"/>
+        <v>0.32142857142857145</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.44827586206896552</v>
+        <f t="shared" si="1"/>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.20689655172413793</v>
+        <f t="shared" si="1"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.27586206896551724</v>
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.34482758620689657</v>
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="N42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.48275862068965519</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="O42" s="25">
-        <f t="shared" si="4"/>
-        <v>0.31034482758620691</v>
+        <f t="shared" si="1"/>
+        <v>0.32142857142857145</v>
       </c>
       <c r="P42" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="2"/>
-        <v>0.31724137931034485</v>
+        <f t="shared" si="0"/>
+        <v>0.32619047619047614</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C43" s="16"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="36">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24">
+        <f>SUM(D13:D22)/$A$15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="36">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26">
+        <f>SUM(D25:D36)/$A$29</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="36">
+        <v>1</v>
+      </c>
+      <c r="D49" s="26">
+        <f>SUM(D39:D45)/$A$38</f>
+        <v>0.38412698412698409</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB772F-2246-43D6-8E65-D259A2D4FD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,7 +5739,7 @@
       </c>
       <c r="C2" s="17">
         <f>'Adopcion Safe'!C42</f>
-        <v>0.51724137931034486</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D2" s="20">
         <v>1</v>
@@ -4708,7 +5755,7 @@
       </c>
       <c r="C3" s="17">
         <f>'Adopcion Safe'!D42</f>
-        <v>0.55172413793103448</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3" s="20">
         <v>1</v>
@@ -4724,7 +5771,7 @@
       </c>
       <c r="C4" s="17">
         <f>'Adopcion Safe'!E42</f>
-        <v>0.34482758620689657</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
@@ -4740,7 +5787,7 @@
       </c>
       <c r="C5" s="17">
         <f>'Adopcion Safe'!F42</f>
-        <v>0.55172413793103448</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D5" s="20">
         <v>1</v>
@@ -4756,7 +5803,7 @@
       </c>
       <c r="C6" s="17">
         <f>'Adopcion Safe'!G42</f>
-        <v>0.17241379310344829</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="D6" s="20">
         <v>1</v>
@@ -4772,7 +5819,7 @@
       </c>
       <c r="C7" s="17">
         <f>'Adopcion Safe'!H42</f>
-        <v>0.2413793103448276</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="20">
         <v>1</v>
@@ -4788,7 +5835,7 @@
       </c>
       <c r="C8" s="17">
         <f>'Adopcion Safe'!I42</f>
-        <v>0.31034482758620691</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -4804,7 +5851,7 @@
       </c>
       <c r="C9" s="17">
         <f>'Adopcion Safe'!J42</f>
-        <v>0.44827586206896552</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -4820,7 +5867,7 @@
       </c>
       <c r="C10" s="17">
         <f>'Adopcion Safe'!K42</f>
-        <v>0.20689655172413793</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
@@ -4836,7 +5883,7 @@
       </c>
       <c r="C11" s="17">
         <f>'Adopcion Safe'!L42</f>
-        <v>0.27586206896551724</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -4852,7 +5899,7 @@
       </c>
       <c r="C12" s="17">
         <f>'Adopcion Safe'!M42</f>
-        <v>0.34482758620689657</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -4868,7 +5915,7 @@
       </c>
       <c r="C13" s="17">
         <f>'Adopcion Safe'!N42</f>
-        <v>0.48275862068965519</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
@@ -4884,7 +5931,7 @@
       </c>
       <c r="C14" s="17">
         <f>'Adopcion Safe'!O42</f>
-        <v>0.31034482758620691</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="D14" s="20">
         <v>1</v>
@@ -4932,7 +5979,7 @@
       </c>
       <c r="C17" s="17">
         <f>AVERAGE(C2:C16)</f>
-        <v>0.31724137931034485</v>
+        <v>0.32619047619047614</v>
       </c>
       <c r="E17" s="29"/>
     </row>
@@ -4984,7 +6031,7 @@
       </c>
       <c r="C23" s="17">
         <f>'Adopcion Safe'!R42</f>
-        <v>0.31724137931034485</v>
+        <v>0.32619047619047614</v>
       </c>
       <c r="D23" s="27">
         <v>1</v>

--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Adopcion Safe" sheetId="4" r:id="rId1"/>
-    <sheet name="RadarMadurez" sheetId="12" r:id="rId2"/>
+    <sheet name="Gráfico1" sheetId="13" r:id="rId1"/>
+    <sheet name="Adopcion Safe" sheetId="4" r:id="rId2"/>
+    <sheet name="RadarMadurez" sheetId="12" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -558,6 +559,3535 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$B$5:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mi Data Al día</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$C$5:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decisor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$D$5:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célula Datos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$E$5:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$F$2:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Seguros</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$F$5:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validador de Ingreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$G$5:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.17857142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Antifraude</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$H$5:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$I$2:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ebyington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$I$5:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.32142857142857145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$J$2:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>APP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$J$5:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.4642857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$K$2:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No bancarizado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$K$5:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$L$2:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Seguridad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$L$5:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$M$2:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SME</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$M$5:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$N$2:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SGID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$N$5:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$O$2:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$O$5:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.32142857142857145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$P$2:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Infraestructura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$P$5:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$Q$2:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reconocer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$Q$5:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Adopcion Safe'!$R$2:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adopcion SaFe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reconocer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Artefactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adopcion Safe'!$R$5:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0%">
+                  <c:v>0.24666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0%">
+                  <c:v>0.29444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0%">
+                  <c:v>0.52222222222222237</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0%">
+                  <c:v>0.32619047619047614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-0318-4347-9915-D25988032935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="107033119"/>
+        <c:axId val="107033951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107033119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107033951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107033951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107033119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -953,7 +4483,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1648,7 +5178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2216,6 +5746,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -2253,7 +5823,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2457,6 +6027,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2757,7 +6830,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3262,7 +7335,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3767,7 +7840,45 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296937" cy="6063803"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3802,7 +7913,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4226,9 +8337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D47" sqref="D47:D49"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5380,63 +9491,63 @@
         <v>16</v>
       </c>
       <c r="C39" s="24">
-        <f>SUM(C5:C14)/$A$15</f>
+        <f t="shared" ref="C39:Q39" si="0">SUM(C5:C14)/$A$15</f>
         <v>0.4</v>
       </c>
       <c r="D39" s="24">
-        <f>SUM(D5:D14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="E39" s="24">
-        <f>SUM(E5:E14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F39" s="24">
-        <f>SUM(F5:F14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="G39" s="24">
-        <f>SUM(G5:G14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H39" s="24">
-        <f>SUM(H5:H14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="I39" s="24">
-        <f>SUM(I5:I14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J39" s="24">
-        <f>SUM(J5:J14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="K39" s="24">
-        <f>SUM(K5:K14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="L39" s="24">
-        <f>SUM(L5:L14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="M39" s="24">
-        <f>SUM(M5:M14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="N39" s="24">
-        <f>SUM(N5:N14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="O39" s="24">
-        <f>SUM(O5:O14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P39" s="24">
-        <f>SUM(P5:P14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="24">
-        <f>SUM(Q5:Q14)/$A$15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R39" s="16">
@@ -5449,67 +9560,67 @@
         <v>32</v>
       </c>
       <c r="C40" s="26">
-        <f>SUM(C17:C28)/$A$29</f>
+        <f t="shared" ref="C40:Q40" si="1">SUM(C17:C28)/$A$29</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="D40" s="26">
-        <f>SUM(D17:D28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E40" s="26">
-        <f>SUM(E17:E28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F40" s="26">
-        <f>SUM(F17:F28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="G40" s="26">
-        <f>SUM(G17:G28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="26">
-        <f>SUM(H17:H28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I40" s="26">
-        <f>SUM(I17:I28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="J40" s="26">
-        <f>SUM(J17:J28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K40" s="26">
-        <f>SUM(K17:K28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L40" s="26">
-        <f>SUM(L17:L28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="M40" s="26">
-        <f>SUM(M17:M28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="N40" s="26">
-        <f>SUM(N17:N28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O40" s="26">
-        <f>SUM(O17:O28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P40" s="26">
-        <f>SUM(P17:P28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q40" s="26">
-        <f>SUM(Q17:Q28)/$A$29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="16">
-        <f t="shared" ref="R40:R42" si="0">AVERAGE(C40:Q40)</f>
+        <f t="shared" ref="R40:R42" si="2">AVERAGE(C40:Q40)</f>
         <v>0.29444444444444445</v>
       </c>
     </row>
@@ -5518,67 +9629,67 @@
         <v>55</v>
       </c>
       <c r="C41" s="26">
-        <f>SUM(C31:C37)/$A$38</f>
+        <f t="shared" ref="C41:Q41" si="3">SUM(C31:C37)/$A$38</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D41" s="26">
-        <f>SUM(D31:D37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E41" s="26">
-        <f>SUM(E31:E37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F41" s="26">
-        <f>SUM(F31:F37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G41" s="26">
-        <f>SUM(G31:G37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H41" s="26">
-        <f>SUM(H31:H37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I41" s="26">
-        <f>SUM(I31:I37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J41" s="26">
-        <f>SUM(J31:J37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K41" s="26">
-        <f>SUM(K31:K37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L41" s="26">
-        <f>SUM(L31:L37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M41" s="26">
-        <f>SUM(M31:M37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N41" s="26">
-        <f>SUM(N31:N37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="26">
-        <f>SUM(O31:O37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P41" s="26">
-        <f>SUM(P31:P37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q41" s="26">
-        <f>SUM(Q31:Q37)/$A$38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52222222222222237</v>
       </c>
     </row>
@@ -5591,63 +9702,63 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" ref="D42:Q42" si="1">SUM(D4:D37)/($A$38+$A$29+$A$15)</f>
+        <f t="shared" ref="D42:Q42" si="4">SUM(D4:D37)/($A$38+$A$29+$A$15)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.5357142857142857</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="H42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="I42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32142857142857145</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="M42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="N42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32142857142857145</v>
       </c>
       <c r="P42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32619047619047614</v>
       </c>
     </row>
@@ -5710,7 +9821,7 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{600C49A9-6128-432B-9EE9-B42919C0EFB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico1" sheetId="13" r:id="rId1"/>
-    <sheet name="Adopcion Safe" sheetId="4" r:id="rId2"/>
-    <sheet name="RadarMadurez" sheetId="12" r:id="rId3"/>
+    <sheet name="Adopcion Safe" sheetId="4" r:id="rId1"/>
+    <sheet name="RadarMadurez" sheetId="12" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>SGID</t>
   </si>
@@ -247,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,3535 +560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$B$5:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mi Data Al día</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$C$5:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.5357142857142857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$D$2:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Decisor</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$D$5:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Célula Datos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$E$5:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.35714285714285715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$F$2:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Seguros</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$F$5:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.5357142857142857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Validador de Ingreso</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$G$5:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.17857142857142858</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$H$2:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Antifraude</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$H$5:$H$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$I$2:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ebyington</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$I$5:$I$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.32142857142857145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$J$2:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>APP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$J$5:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.4642857142857143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$K$2:$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No bancarizado</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$K$5:$K$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.21428571428571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$L$2:$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Seguridad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$L$5:$L$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$M$2:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SME</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$M$5:$M$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.35714285714285715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$N$2:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SGID</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$N$5:$N$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$O$2:$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bus</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$O$5:$O$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.32142857142857145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$P$2:$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Infraestructura</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$P$5:$P$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$Q$2:$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reconocer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$Q$5:$Q$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Adopcion Safe'!$R$2:$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adopcion SaFe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reconocer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Artefactos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$A$5:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adopcion Safe'!$R$5:$R$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0%">
-                  <c:v>0.24666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0%">
-                  <c:v>0.29444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0%">
-                  <c:v>0.52222222222222237</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0%">
-                  <c:v>0.32619047619047614</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-0318-4347-9915-D25988032935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="107033119"/>
-        <c:axId val="107033951"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="107033119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="107033951"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="107033951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="107033119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4118,7 +590,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4416,7 +887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4483,7 +953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4523,7 +993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5104,7 +1573,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5136,7 +1604,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5144,6 +1611,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5178,7 +1646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5226,7 +1694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5591,7 +2058,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5623,7 +2089,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5631,6 +2096,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5746,46 +2212,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -5823,7 +2249,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6027,22 +2453,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6147,8 +2574,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6280,19 +2707,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7335,550 +3763,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296937" cy="6063803"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7895,7 +3780,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7913,7 +3804,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8334,12 +4225,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9817,7 +5708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10158,4 +6049,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A833ECAE-9190-4A9A-B8AD-73A6A520EE6C}">
+  <dimension ref="C3:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{600C49A9-6128-432B-9EE9-B42919C0EFB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F30E4617-7344-4DCA-B4E0-3D013C6ED65A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Adopcion Safe" sheetId="4" r:id="rId1"/>
     <sheet name="RadarMadurez" sheetId="12" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="14" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>SGID</t>
   </si>
@@ -243,6 +244,120 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Enabler</t>
+  </si>
+  <si>
+    <t>Iterarion Backlog</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Program Board</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Objetive PI</t>
+  </si>
+  <si>
+    <t>Backlog Feature</t>
+  </si>
+  <si>
+    <t>Mapa riesgos PI</t>
+  </si>
+  <si>
+    <t>Minimo Producto Viable</t>
+  </si>
+  <si>
+    <t>Refinamiento Historias Usuario</t>
+  </si>
+  <si>
+    <t>Diseño Arquitectura</t>
+  </si>
+  <si>
+    <t>Definicion Arquitectura Base</t>
+  </si>
+  <si>
+    <t>Iterarion Planning</t>
+  </si>
+  <si>
+    <t>Iteration Ejecucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteration Review </t>
+  </si>
+  <si>
+    <t>iteration Retrospectiva</t>
+  </si>
+  <si>
+    <t>Program Increment</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Refinamiento Feature</t>
+  </si>
+  <si>
+    <t>Sinconizacion Product Owner</t>
+  </si>
+  <si>
+    <t>Planeacion</t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
+  </si>
+  <si>
+    <t>Refinamiento</t>
+  </si>
+  <si>
+    <t>Fecha Incio</t>
+  </si>
+  <si>
+    <t>Fecha Fin</t>
+  </si>
+  <si>
+    <t>Arquitectura Base</t>
+  </si>
+  <si>
+    <t>Prepracion Tecnica</t>
+  </si>
+  <si>
+    <t>PI Planing</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Planing</t>
+  </si>
+  <si>
+    <t>Ejecucion</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>No Bancalizados</t>
+  </si>
+  <si>
+    <t>Mi Data Al Dia</t>
+  </si>
+  <si>
+    <t>Plan PI / roadmap</t>
   </si>
 </sst>
 </file>
@@ -324,7 +439,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -527,6 +648,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4230,7 +4361,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30:B36"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,7 +4487,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
@@ -4422,7 +4553,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
@@ -6053,184 +6184,766 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A833ECAE-9190-4A9A-B8AD-73A6A520EE6C}">
-  <dimension ref="C3:D30"/>
+  <dimension ref="B2:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B6:B23)</f>
+        <v>17</v>
+      </c>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>SUM(B27:B45)</f>
+        <v>18</v>
+      </c>
+      <c r="C46" s="38"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>SUM(B49:B55)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="24">
+        <f>SUM(D6:D23)/$B$24</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="E58" s="24">
+        <f>SUM(E6:E23)/$B$24</f>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="26">
+        <f>SUM(D27:D45)/$B$46</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E59" s="26">
+        <f>SUM(E27:E45)/$B$46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="26">
+        <f>SUM(D49:D55)/$B$56</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E60" s="26">
+        <f>SUM(E49:E55)/$B$56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="25">
+        <f>SUM(D6:D56)/($B$56+$B$46+$B$24)</f>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="E61" s="25">
+        <f>SUM(E6:E56)/($B$56+$B$46+$B$24)</f>
+        <v>7.3170731707317069E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4431370B-CEBE-48A7-8B14-DBA98990821D}">
+  <dimension ref="C3:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="42">
+        <v>43426</v>
+      </c>
+      <c r="E5" s="42">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Adopcion Safe.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB6120-B2CE-4F23-AB00-F7E7142EBE0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Adopcion Safe" sheetId="4" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RadarMadurez!$D$2:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="122">
   <si>
     <t>SGID</t>
   </si>
@@ -394,11 +393,23 @@
   <si>
     <t>Lina Cadena Cardenas</t>
   </si>
+  <si>
+    <t>Logrado Spint 4</t>
+  </si>
+  <si>
+    <t>Logrado Sprint 4</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>CIIA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -678,6 +689,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1964,6 +1976,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2116,13 +2129,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54062500000000002</c:v>
+                  <c:v>0.53515625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36681547619047622</c:v>
+                  <c:v>0.44117647058823534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.75490196078431371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,6 +2274,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2367,6 +2381,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2450,7 +2465,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -2586,7 +2601,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -2722,7 +2737,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -2867,7 +2882,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -2971,6 +2986,95 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C30A-4F9A-9284-BC769A096166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadarMadurez!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logrado Spint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RadarMadurez!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3E2-40EA-A8AE-EDF86345DAA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3102,6 +3206,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3133,6 +3238,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3140,7 +3246,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3223,6 +3328,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3518,6 +3624,55 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01D6-47B0-AA00-B6CA167B32BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadarMadurez!$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RadarMadurez!$I$23:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44117647058823534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75490196078431371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE5F-4DFC-82C8-7567B433827E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3649,6 +3804,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3680,6 +3836,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3687,7 +3844,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3767,6 +3923,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3839,7 +3996,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -3973,7 +4130,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -4107,7 +4264,7 @@
                   <c:v>Célula Datos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SGID</c:v>
+                  <c:v>CIIA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Operaciones y servicios</c:v>
@@ -4211,6 +4368,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DAFE-4588-97E0-65EAE0EAA504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadarMadurez!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logrado Spint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>RadarMadurez!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B7D-4BE5-AF0B-ECB1FE9D034B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4344,6 +4588,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4455,6 +4700,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4555,6 +4801,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4655,6 +4902,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4755,6 +5003,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4788,6 +5037,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A744-4EEF-8912-0D0298A4FD69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RadarMadurez!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logrado Spint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>RadarMadurez!$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.59638888888888908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C42-4174-AB63-A944DDBDB348}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4915,6 +5267,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4946,6 +5299,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4953,7 +5307,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10534,13 +10887,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>584577</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>728041</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>17807</xdr:rowOff>
@@ -10570,16 +10923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184894</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>181455</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461119</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>27170</xdr:colOff>
+      <xdr:colOff>36695</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>62026</xdr:rowOff>
+      <xdr:rowOff>109651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10642,16 +10995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11016,7 +11369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12536,7 +12889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14280,13 +14633,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="P4" sqref="P4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16387,13 +16740,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A5C07-3A0C-47CB-B159-EAEE40E2C449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16522,7 +16875,9 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
@@ -16576,7 +16931,9 @@
         <v>1</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -16614,8 +16971,12 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2">
         <v>1</v>
@@ -16685,7 +17046,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -16770,7 +17133,9 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
@@ -16783,7 +17148,9 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
@@ -16831,7 +17198,9 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -16878,7 +17247,9 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -16896,7 +17267,9 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -16941,7 +17314,9 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -17013,7 +17388,9 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
@@ -17031,7 +17408,9 @@
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -17056,10 +17435,16 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
@@ -17070,7 +17455,9 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -17095,7 +17482,9 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
@@ -17256,7 +17645,9 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
@@ -17267,7 +17658,9 @@
         <v>1</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17300,21 +17693,29 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -17337,7 +17738,9 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
@@ -17348,12 +17751,16 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -17378,7 +17785,9 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -17389,10 +17798,14 @@
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>1</v>
+      </c>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -17410,11 +17823,15 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
@@ -17425,7 +17842,9 @@
         <v>1</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>1</v>
+      </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -17443,11 +17862,15 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
@@ -17458,7 +17881,9 @@
         <v>1</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -17544,7 +17969,9 @@
         <v>1</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
         <v>1</v>
@@ -17577,12 +18004,16 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
       <c r="L33" s="2">
         <v>1</v>
       </c>
@@ -17593,7 +18024,9 @@
         <v>1</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -17618,7 +18051,9 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
@@ -17636,7 +18071,9 @@
         <v>1</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -17663,9 +18100,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2">
-        <v>1</v>
-      </c>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -17752,12 +18187,16 @@
       <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -17766,9 +18205,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2">
-        <v>1</v>
-      </c>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -17877,8 +18314,12 @@
         <v>1</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
       <c r="P42" s="2">
         <v>1</v>
       </c>
@@ -17928,8 +18369,12 @@
         <v>1</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
       <c r="P43" s="2">
         <v>1</v>
       </c>
@@ -17979,8 +18424,12 @@
         <v>1</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
       <c r="P44" s="2">
         <v>1</v>
       </c>
@@ -18027,7 +18476,9 @@
       <c r="D46" s="2">
         <v>1</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
@@ -18050,7 +18501,9 @@
         <v>1</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2">
         <v>1</v>
@@ -18073,10 +18526,14 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2">
@@ -18128,8 +18585,12 @@
         <v>1</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
       <c r="P48" s="2">
         <v>1</v>
       </c>
@@ -18161,7 +18622,7 @@
         <v>0.75</v>
       </c>
       <c r="D51" s="20">
-        <f t="shared" ref="D51:L51" si="1">SUM(D4:D20)/$A$21</f>
+        <f t="shared" ref="D51:K51" si="1">SUM(D4:D20)/$A$21</f>
         <v>0.8125</v>
       </c>
       <c r="E51" s="20">
@@ -18172,17 +18633,16 @@
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="20">
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
-      <c r="H51" s="20">
-        <f t="shared" si="1"/>
-        <v>0.4375</v>
-      </c>
       <c r="I51" s="20">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" si="1"/>
@@ -18190,30 +18650,35 @@
       </c>
       <c r="K51" s="20">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L51" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L51:O51" si="2">SUM(L4:L20)/$A$21</f>
         <v>0.75</v>
       </c>
       <c r="M51" s="20">
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N51" s="20">
-        <f>SUM(N4:N20)/$A$21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O51" s="20">
-        <f>SUM(O4:O20)/$A$21</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
       </c>
       <c r="P51" s="20">
         <f>SUM(P4:P20)/$A$21</f>
-        <v>0.75</v>
+        <v>0.8125</v>
+      </c>
+      <c r="Q51" s="20">
+        <f t="shared" ref="Q51" si="3">SUM(Q4:Q20)/$A$21</f>
+        <v>0</v>
       </c>
       <c r="R51" s="20">
         <f>SUM(R4:R20)/$A$21</f>
-        <v>0.4375</v>
+        <v>0.8125</v>
       </c>
       <c r="S51" s="20">
         <f>SUM(S4:S20)/$A$21</f>
@@ -18221,7 +18686,7 @@
       </c>
       <c r="T51" s="14">
         <f>AVERAGE(C51:S51)</f>
-        <v>0.54062500000000002</v>
+        <v>0.53515625</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -18229,63 +18694,68 @@
         <v>32</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" ref="C52" si="2">SUM(C24:C38)/$A$39</f>
+        <f t="shared" ref="C52" si="4">SUM(C24:C38)/$A$39</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="D52" s="22">
-        <f t="shared" ref="D52:L52" si="3">SUM(D24:D38)/$A$39</f>
-        <v>0.5</v>
+        <f t="shared" ref="D52:K52" si="5">SUM(D24:D38)/$A$39</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H52" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I52" s="22">
+        <f t="shared" si="5"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J52" s="22">
+        <f t="shared" si="5"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="I52" s="22">
-        <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J52" s="22">
-        <f t="shared" si="3"/>
+      <c r="K52" s="22">
+        <f t="shared" si="5"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L52" s="22">
+        <f t="shared" ref="L52:O52" si="6">SUM(L24:L38)/$A$39</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="22">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="shared" si="6"/>
         <v>0.21428571428571427</v>
-      </c>
-      <c r="K52" s="22">
-        <f t="shared" si="3"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="L52" s="22">
-        <f t="shared" si="3"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="M52" s="22">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N52" s="22">
-        <f>SUM(N24:N38)/$A$39</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="22">
-        <f>SUM(O24:O38)/$A$39</f>
-        <v>0</v>
       </c>
       <c r="P52" s="22">
         <f>SUM(P24:P38)/$A$39</f>
         <v>0.6428571428571429</v>
       </c>
+      <c r="Q52" s="22">
+        <f t="shared" ref="Q52" si="7">SUM(Q24:Q38)/$A$39</f>
+        <v>0</v>
+      </c>
       <c r="R52" s="22">
         <f>SUM(R24:R38)/$A$39</f>
-        <v>0.35714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S52" s="22">
         <f>SUM(S24:S38)/$A$39</f>
@@ -18293,7 +18763,7 @@
       </c>
       <c r="T52" s="14">
         <f>AVERAGE(C52:S52)</f>
-        <v>0.36681547619047622</v>
+        <v>0.44117647058823534</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -18310,62 +18780,67 @@
       </c>
       <c r="E53" s="22">
         <f>SUM(E42:E48)/$A$49</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F53" s="22">
+        <f t="shared" ref="F53:P53" si="8">SUM(F42:F48)/$A$49</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I53" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K53" s="22">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L53" s="22">
+        <f t="shared" ref="L53:O53" si="9">SUM(L42:L48)/$A$49</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="22">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O53" s="22">
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F53" s="22">
-        <f t="shared" ref="F53:P53" si="4">SUM(F42:F48)/$A$49</f>
+      <c r="P53" s="22">
+        <f t="shared" si="8"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G53" s="22">
-        <f t="shared" si="4"/>
+      <c r="Q53" s="22">
+        <f t="shared" ref="Q53" si="10">SUM(Q42:Q48)/$A$49</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="22">
+        <f t="shared" ref="R53:S53" si="11">SUM(R42:R48)/$A$49</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H53" s="22">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I53" s="22">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J53" s="22">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K53" s="22">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L53" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="22">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N53" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="22">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R53" s="22">
-        <f t="shared" ref="R53:S53" si="5">SUM(R42:R48)/$A$49</f>
-        <v>0.83333333333333337</v>
-      </c>
       <c r="S53" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="T53" s="14">
         <f>AVERAGE(C53:S53)</f>
-        <v>0.71875</v>
+        <v>0.75490196078431371</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -18373,61 +18848,67 @@
         <v>66</v>
       </c>
       <c r="C54" s="41">
-        <f t="shared" ref="C54" si="6">SUM(C4:C49)/($A$49+$A$39+$A$21)</f>
+        <f t="shared" ref="C54" si="12">SUM(C4:C49)/($A$49+$A$39+$A$21)</f>
         <v>0.63888888888888884</v>
       </c>
       <c r="D54" s="41">
-        <f t="shared" ref="D54:L54" si="7">SUM(D4:D49)/($A$49+$A$39+$A$21)</f>
-        <v>0.69444444444444442</v>
+        <f t="shared" ref="D54:K54" si="13">SUM(D4:D49)/($A$49+$A$39+$A$21)</f>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.75</v>
+        <f t="shared" si="13"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F54" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="G54" s="41">
+        <f t="shared" si="13"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.69444444444444442</v>
-      </c>
       <c r="H54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="13"/>
+        <v>0.72222222222222221</v>
       </c>
       <c r="I54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J54" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="K54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="13"/>
+        <v>0.72222222222222221</v>
       </c>
       <c r="L54" s="41">
-        <f t="shared" si="7"/>
-        <v>0.75</v>
-      </c>
-      <c r="M54" s="21">
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="N54" s="21">
-        <v>0</v>
-      </c>
-      <c r="O54" s="21">
-        <v>0</v>
+        <f t="shared" ref="L54:O54" si="14">SUM(L4:L49)/($A$49+$A$39+$A$21)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M54" s="41">
+        <v>0.32</v>
+      </c>
+      <c r="N54" s="41">
+        <f t="shared" si="14"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O54" s="41">
+        <f t="shared" si="14"/>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P54" s="36">
         <f>SUM(P4:P49)/($A$49+$A$39+$A$21)</f>
-        <v>0.72222222222222221</v>
+        <v>0.75</v>
+      </c>
+      <c r="Q54" s="41">
+        <f t="shared" ref="Q54" si="15">SUM(Q4:Q49)/($A$49+$A$39+$A$21)</f>
+        <v>0</v>
       </c>
       <c r="R54" s="36">
         <f>SUM(R4:R49)/($A$49+$A$39+$A$21)</f>
-        <v>0.47222222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S54" s="36">
         <f>SUM(S4:S49)/($A$49+$A$39+$A$21)</f>
@@ -18435,7 +18916,7 @@
       </c>
       <c r="T54" s="14">
         <f>AVERAGE(C54:S54)</f>
-        <v>0.50272817460317454</v>
+        <v>0.56130718954248371</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -18455,7 +18936,7 @@
       </c>
       <c r="D59" s="20">
         <f>T51</f>
-        <v>0.54062500000000002</v>
+        <v>0.53515625</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -18467,7 +18948,7 @@
       </c>
       <c r="D60" s="22">
         <f>T52</f>
-        <v>0.36681547619047622</v>
+        <v>0.44117647058823534</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -18479,7 +18960,7 @@
       </c>
       <c r="D61" s="22">
         <f>T53</f>
-        <v>0.71875</v>
+        <v>0.75490196078431371</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
@@ -18496,11 +18977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18511,6 +18992,8 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -18539,7 +19022,7 @@
         <v>116</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -18572,9 +19055,9 @@
         <f>H2-G2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J2" s="15">
-        <f>Sprint4!H54</f>
-        <v>0.41666666666666669</v>
+      <c r="J2" s="14">
+        <f>Sprint4!F54</f>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -18604,12 +19087,12 @@
         <v>0.75</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I19" si="0">H3-G3</f>
+        <f>H3-G3</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="J3" s="15">
-        <f>Sprint4!G54</f>
-        <v>0.69444444444444442</v>
+      <c r="J3" s="14">
+        <f>Sprint4!E54</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -18621,7 +19104,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E4" s="23">
         <v>1</v>
@@ -18639,12 +19122,12 @@
         <v>0.75</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" si="0"/>
+        <f>H4-G4</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="J4" s="15">
-        <f>Sprint4!N54</f>
-        <v>0</v>
+      <c r="J4" s="14">
+        <f>Sprint4!L54</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -18668,12 +19151,12 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" si="0"/>
+        <f>H5-G5</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="J5" s="15">
-        <f>Sprint4!R54</f>
-        <v>0.47222222222222221</v>
+      <c r="J5" s="14">
+        <f>Sprint4!P54</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -18703,12 +19186,12 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="0"/>
+        <f>H6-G6</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="J6" s="15">
-        <f>Sprint4!F54</f>
-        <v>0.77777777777777779</v>
+      <c r="J6" s="14">
+        <f>Sprint4!D54</f>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -18738,12 +19221,12 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="0"/>
+        <f>H7-G7</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J7" s="15">
-        <f>Sprint4!I54</f>
-        <v>0.58333333333333337</v>
+      <c r="J7" s="14">
+        <f>Sprint4!G54</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -18773,12 +19256,12 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="0"/>
+        <f>H8-G8</f>
         <v>0.19444444444444448</v>
       </c>
-      <c r="J8" s="15">
-        <f>Sprint4!K54</f>
-        <v>0.58333333333333337</v>
+      <c r="J8" s="14">
+        <f>Sprint4!I54</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -18808,12 +19291,12 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="0"/>
+        <f>H9-G9</f>
         <v>0.22619047619047622</v>
       </c>
-      <c r="J9" s="15">
-        <f>Sprint4!M54</f>
-        <v>0.32142857142857145</v>
+      <c r="J9" s="14">
+        <f>Sprint4!K54</f>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -18843,12 +19326,12 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="0"/>
+        <f>H10-G10</f>
         <v>-1.1111111111111738E-3</v>
       </c>
-      <c r="J10" s="15">
-        <f>Sprint4!E54</f>
-        <v>0.75</v>
+      <c r="J10" s="14">
+        <f>Sprint4!C54</f>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -18878,12 +19361,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="0"/>
+        <f>H11-G11</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="J11" s="15">
-        <f>Sprint4!J54</f>
-        <v>0.30555555555555558</v>
+      <c r="J11" s="14">
+        <f>Sprint4!H54</f>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18913,12 +19396,12 @@
         <v>0.32142857142857145</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="0"/>
+        <f>H12-G12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="15">
-        <f>Sprint4!O54</f>
-        <v>0</v>
+      <c r="J12" s="14">
+        <f>Sprint4!M54</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -18948,12 +19431,12 @@
         <v>0.30555555555555558</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="0"/>
+        <f>H13-G13</f>
         <v>1.9841269841269882E-2</v>
       </c>
-      <c r="J13" s="15">
-        <f>Sprint4!L54</f>
-        <v>0.75</v>
+      <c r="J13" s="14">
+        <f>Sprint4!J54</f>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -18983,12 +19466,12 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="0"/>
+        <f>H14-G14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="15">
-        <f>Sprint4!P54</f>
-        <v>0.72222222222222221</v>
+      <c r="J14" s="48">
+        <f>Sprint4!N54</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -19018,12 +19501,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="0"/>
+        <f>H15-G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="15">
-        <f>Sprint4!Q54</f>
-        <v>0</v>
+      <c r="J15" s="14">
+        <f>Sprint4!O54</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -19044,10 +19527,9 @@
       <c r="G16" s="45"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15">
-        <f t="shared" si="0"/>
+        <f>H16-G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -19070,12 +19552,12 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="0"/>
+        <f>H17-G17</f>
         <v>0.47222222222222221</v>
       </c>
-      <c r="J17" s="15">
-        <f>Sprint4!T54</f>
-        <v>0.50272817460317454</v>
+      <c r="J17" s="14">
+        <f>Sprint4!R54</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -19099,15 +19581,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="0"/>
+        <f>H18-G18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J18" s="15">
-        <f>Sprint4!U54</f>
-        <v>0</v>
+      <c r="J18" s="14">
+        <f>Sprint4!S54</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="16" t="s">
         <v>62</v>
       </c>
@@ -19125,12 +19610,12 @@
         <v>0.50272817460317465</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="0"/>
+        <f>H19-G19</f>
         <v>6.6134768009768141E-2</v>
       </c>
       <c r="J19" s="15">
         <f>AVERAGE(J2:J18)</f>
-        <v>0.42998201884920639</v>
+        <v>0.59638888888888908</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -19147,6 +19632,9 @@
       <c r="H22" s="38" t="s">
         <v>95</v>
       </c>
+      <c r="I22" s="38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
@@ -19167,6 +19655,10 @@
         <f>Sprint3!D59</f>
         <v>0.54062500000000002</v>
       </c>
+      <c r="I23" s="14">
+        <f>Sprint4!T51</f>
+        <v>0.53515625</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
@@ -19187,6 +19679,10 @@
         <f>Sprint3!D60</f>
         <v>0.36681547619047622</v>
       </c>
+      <c r="I24" s="14">
+        <f>Sprint4!T52</f>
+        <v>0.44117647058823534</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
@@ -19207,12 +19703,16 @@
         <f>Sprint3!D61</f>
         <v>0.71875</v>
       </c>
+      <c r="I25" s="14">
+        <f>Sprint4!T53</f>
+        <v>0.75490196078431371</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="D2:H17">
+  <sortState ref="A2:J19">
     <sortCondition descending="1" ref="H2:H17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19222,7 +19722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19356,7 +19856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
